--- a/biology/Histoire de la zoologie et de la botanique/Maynard_M._Metcalf/Maynard_M._Metcalf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maynard_M._Metcalf/Maynard_M._Metcalf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maynard M. Metcalf est un zoologiste américain, né le 12 mars 1868 à Elyria (Ohio) et mort le 22 avril 1940 à Winter Park (Floride).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maynard M. Metcalf est le fils de Elijah Wright Metcalf et de Maria Ely Metcalf. Il étudie à l’Oberlin College et à l’université Johns-Hopkins où il recevra un Ph. D. en 1893. Jusqu’en 1906, il dirige le département de biologie du Goucher College avant de diriger le département de zoologie de l’Oberlin College. En 1914, il démissionne pour se consacrer à la recherche de terrain tant aux États-Unis d'Amérique qu’à l’étranger. En 1924, il dirige la division de biologie et d’agriculture de la National Academy of Sciences. Il est également membre de l’Ohio Academy of Science qu’il préside en 1919. Il est l’auteur de plus de 150 publications consacrée à l’évolution ainsi qu’à des questions économiques ou philosophiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nécrologie parue dans The Ohio Journal of Science, vol. 56 (6), novembre 1941, p. 410.
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
